--- a/menu_files/166825177696027.xlsx
+++ b/menu_files/166825177696027.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1314,6 +1314,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ФРЕШ-ВІТАМІННІ МІКСИ
 </t>
@@ -1325,6 +1326,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Яблучно-морквяний
 Апельсиново-морквяно-буряковий Селерово-буряково-яблучний Грейпфрутово-медово-грушевий Імбирно-селерово-апельсиновий Апельсиновий
@@ -1441,6 +1443,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">КОКТЕЙЛІ
 </t>
@@ -1451,6 +1454,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">АЛКОГОЛЬНІ</t>
     </r>
@@ -1466,6 +1470,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ванільний сироп, текіла, ром, джин, кола, лимонний сік)
 </t>
@@ -1477,6 +1482,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Berry Killer</t>
     </r>
@@ -1492,6 +1498,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">малиновий сироп, лимонний сік, полуниця, смородина, м’ята)
 </t>
@@ -1503,6 +1510,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Blue Lagoon</t>
     </r>
@@ -1515,6 +1523,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(горілка, лікер Blue Curacao, Sprite, лимон)
 </t>
@@ -1526,6 +1535,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cosmopolitan</t>
     </r>
@@ -1538,6 +1548,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(горілка, лікер, сік)
 </t>
@@ -1549,6 +1560,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Sex on Beach</t>
     </r>
@@ -1561,6 +1573,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(горілка, лікер, гранатовий сироп, сік)
 </t>
@@ -1572,6 +1585,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Hungarian Merry</t>
     </r>
@@ -1584,6 +1598,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(горілка, томатний сік, Ерош Пішта, сіль, чорний перець, лід)
 </t>
@@ -1595,6 +1610,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Pina Colada</t>
     </r>
@@ -1607,6 +1623,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(ром, лікер Malibu, кокосовий сироп, вершки, ананасовий сік)
 </t>
@@ -1618,6 +1635,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Mojito</t>
     </r>
@@ -1630,6 +1648,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">( ром, Sprite, лайм, м’ята, тростниковий цукор)
 </t>
@@ -1641,6 +1660,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Jin-Tonic</t>
     </r>
@@ -1653,6 +1673,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(джин, тонік, лайм)
 </t>
@@ -1664,6 +1685,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Margarita</t>
     </r>
@@ -1676,6 +1698,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(текіла, лікер, сіль, лайм, лимонний сік)
 </t>
@@ -1687,6 +1710,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Tequila Sunrise</t>
     </r>
@@ -1699,6 +1723,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(текіла, ананасовий сік, гранатовий сироп, апельсин)
 </t>
@@ -1710,6 +1735,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Strawberry Punch</t>
     </r>
@@ -1722,6 +1748,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Prosecco, ром, сік, полуниця, лайм, лід)
 </t>
@@ -1733,6 +1760,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Aperol</t>
     </r>
@@ -1745,6 +1773,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Prosecco , лікер Aperol, апельсин)
 </t>
@@ -1756,6 +1785,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Martini Royal</t>
     </r>
@@ -1768,6 +1798,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(білий вермут, Prosecco, лаймовий сік, лайм, м’ята, лід)
 </t>
@@ -1779,6 +1810,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Penicillin</t>
     </r>
@@ -1791,6 +1823,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(віскі, сироп, мед, лимонний фреш, імбир)
 </t>
@@ -1802,6 +1835,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Hugo Sprits</t>
     </r>
@@ -1814,6 +1848,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(вино, Prosecco, сироп, лайм, м’ята)
 </t>
@@ -1825,6 +1860,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Negroni</t>
     </r>
@@ -1837,6 +1873,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(джин, апероль, вермут)
 </t>
@@ -1848,6 +1885,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Berry whiskey</t>
     </r>
@@ -1866,6 +1904,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(самбука, лікер Baileys, абсент)
 </t>
@@ -1877,6 +1916,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Лексус</t>
     </r>
@@ -1889,6 +1929,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(лікер Kahlua, самбука, лікер Baileys, лікер Blue Curacao)
 </t>
@@ -1900,6 +1941,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Б-52</t>
     </r>
@@ -1959,6 +2001,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">БІЛІ ВИНА
 </t>
@@ -1969,6 +2012,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">УКРАЇНА                                                </t>
     </r>
@@ -1978,6 +2022,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">150 мл / пл</t>
     </r>
@@ -1996,6 +2041,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Chateau Chizay Pinot Blanc                                            96,00 / 480,00
 </t>
@@ -2007,6 +2053,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Напівсолодке. Смак живий, легкий, елегантний, добре збалансований, освіжаючий післясмак з легкою мінеральністю. Вино розкривається пишним букетом білих квітів, цитрусових, яблук з прянощами, медом і відтінками стиглих фруктів.)</t>
     </r>
@@ -2018,6 +2065,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ІТАЛІЯ                                                   </t>
     </r>
@@ -2027,6 +2075,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">150 мл / пл</t>
     </r>
@@ -2045,6 +2094,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ІСПАНІЯ                                                </t>
     </r>
@@ -2054,6 +2104,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">150 мл / пл</t>
     </r>
@@ -2072,6 +2123,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ФРАНЦІЯ                                               </t>
     </r>
@@ -2081,6 +2133,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">150 мл / пл</t>
     </r>
@@ -2096,6 +2149,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Напівсолодке, виготовлене з сорту винограду Уні Блан, Совіньйон Блан. Аромат вина,
 сповнений  ніжними  фруктовими  та  медовими  нотками,  а  медовий  смак  сповнений чарівності фруктів з домінуючими нотами абрикоса.)
@@ -2107,6 +2161,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ЧІЛІ                                                     </t>
     </r>
@@ -2116,6 +2171,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">150 мл / пл</t>
     </r>
@@ -2134,6 +2190,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Montes Chardonnay Reserva                                        180,00 / 900,00
 </t>
@@ -2145,6 +2202,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Сухе. Смак ідеально збалансований, маслянистий, складний, з довгим вершковим післясмаком. Аромат: квітково-фруктовий, з яскраво вираженим букетом тропічних фруктів, з елегантними вкрапленнями дуба, з ванільним і вершковим відтінком.)</t>
     </r>
@@ -2156,6 +2214,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">НОВА ЗЕЛАНДІЯ
 </t>
@@ -2167,6 +2226,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Marlborough Sun Sauvignon Blanc                              231,00 / 1155,00
 </t>
@@ -2178,6 +2238,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Сухе. Пишний аромат маракуї, аґрусу, листя чорної смородини в обрамленні тонких цитрусових тонів. У смаку добре збалансоване вино, має приємну свіжість з яскравим характером. Післясмак затяжний, освіжаючий.)</t>
     </r>
@@ -2189,6 +2250,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ЧЕРВОНІ ВИНА
 </t>
@@ -2199,6 +2261,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">УКРАЇНА                                                </t>
     </r>
@@ -2208,6 +2271,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">150 мл / пл</t>
     </r>
@@ -2227,6 +2291,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Chateau Chizay Піно Нуар                                            96,00 / 480,00
 </t>
@@ -2238,6 +2303,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Напівсолодке.  Колір  вина  красивий  гранатовий,  аромат  –  яскравий  з  відтінками темних і червоних ягід. Приємний, злегка терпкий, ягідний смак з нотками вишні та малини завершується тривалим та гармонійним післясмаком.)
 </t>
@@ -2248,6 +2314,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ІТАЛІЯ                                                   </t>
     </r>
@@ -2257,6 +2324,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">150 мл / пл</t>
     </r>
@@ -2282,6 +2350,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Entrecote, Gourmet Pere &amp; Fils                                      168,00 / 840,00
 </t>
@@ -2293,6 +2362,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Напівсухе. Смак м'який, гладкий, питкий, повнотілий, дуже соковитий, з оксамитови- ми танінами та гармонійною кислотністю, післясмак тривалий, приємний, з ягідними тонами. Аромат щедрий, багатий букет демонструє яскраві фруктові ноти слив, вишні, стиглої ожини з тонкими нюансами спецій.)</t>
     </r>
@@ -2305,6 +2375,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Reserve de l’Audbe Pere Anselme Syrah-Merlot, Brotte   120,00 / 600,00
 </t>
@@ -2316,6 +2387,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Сухе. Смак округлий, повнотілий, з приємною легкістю, гострими ягідними нотами і тривалим післясмаком. Аромат яскравий, соковитий, з нотами вишні, малини і легким нюансом ванілі.)</t>
     </r>
@@ -2327,6 +2399,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ЧІЛІ                                                      </t>
     </r>
@@ -2336,6 +2409,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">150 мл / пл</t>
     </r>
@@ -2354,6 +2428,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ІСПАНІЯ                                                 </t>
     </r>
@@ -2363,6 +2438,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">150 мл / пл</t>
     </r>
@@ -2381,6 +2457,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">АВСТРАЛІЯ                                             </t>
     </r>
@@ -2390,6 +2467,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">150 мл / пл</t>
     </r>
@@ -2453,6 +2531,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">РОЖЕВІ ВИНА
 </t>
@@ -2463,6 +2542,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">НОВА ЗЕЛАНДІЯ                                       </t>
     </r>
@@ -2472,6 +2552,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">150 мл / пл</t>
     </r>
@@ -2490,6 +2571,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ЧІЛІ                                                     </t>
     </r>
@@ -2499,6 +2581,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">150 мл / пл</t>
     </r>
@@ -2541,6 +2624,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ЧЕРВОНІ
 </t>
@@ -2552,6 +2636,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">La Foret Bourgogne Rouge AOC 2016 (Франція, 2016)</t>
     </r>
@@ -2563,6 +2648,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">пляшка
 </t>
@@ -2574,6 +2660,7 @@
         <color rgb="FF3B2314"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1860,00</t>
     </r>
@@ -2649,6 +2736,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2670,6 +2758,7 @@
       <color rgb="FF3B2314"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2677,18 +2766,21 @@
       <color rgb="FF3B2314"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3B2314"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2696,6 +2788,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2703,12 +2796,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2716,12 +2811,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2729,12 +2826,14 @@
       <color rgb="FF3B2314"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF3B2314"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2742,6 +2841,7 @@
       <color rgb="FF3B2314"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2749,12 +2849,14 @@
       <color rgb="FF3B2314"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20.5"/>
       <color rgb="FF3B2314"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2762,6 +2864,7 @@
       <color rgb="FF3B2314"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2769,6 +2872,7 @@
       <color rgb="FF3B2314"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2776,6 +2880,7 @@
       <color rgb="FF3B2314"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2844,7 +2949,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2854,7 +2959,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2870,7 +2975,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2886,7 +2991,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3018,7 +3123,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3059,10 +3164,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3109,10 +3210,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3122,7 +3219,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3163,10 +3260,6 @@
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3268,9 +3361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1368360</xdr:colOff>
+      <xdr:colOff>1368000</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>4994280</xdr:rowOff>
+      <xdr:rowOff>4993920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3284,7 +3377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3412080" y="8864280"/>
-          <a:ext cx="6586560" cy="10233000"/>
+          <a:ext cx="6586200" cy="10232640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3310,9 +3403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>946440</xdr:colOff>
+      <xdr:colOff>946080</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>4993560</xdr:rowOff>
+      <xdr:rowOff>4993200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3326,7 +3419,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4230000" y="15836040"/>
-          <a:ext cx="6586200" cy="10233000"/>
+          <a:ext cx="6585840" cy="10232640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3352,9 +3445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1354680</xdr:colOff>
+      <xdr:colOff>1354320</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>5018400</xdr:rowOff>
+      <xdr:rowOff>5018040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3368,7 +3461,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5117040" y="8332920"/>
-          <a:ext cx="6586560" cy="10233000"/>
+          <a:ext cx="6586200" cy="10232640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3394,9 +3487,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>756720</xdr:colOff>
+      <xdr:colOff>756360</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>5002560</xdr:rowOff>
+      <xdr:rowOff>5002200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3410,7 +3503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3983760" y="5764320"/>
-          <a:ext cx="6586200" cy="10233000"/>
+          <a:ext cx="6585840" cy="10232640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3430,135 +3523,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>864720</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1354680</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>5039280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image1.png" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5370480" y="7569720"/>
-          <a:ext cx="6586560" cy="10233000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>252720</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>742680</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>5038920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image3.png" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4758480" y="25139520"/>
-          <a:ext cx="6586560" cy="10233000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>864720</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1354680</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>5039280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="image1.png" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5370480" y="40980240"/>
-          <a:ext cx="6586560" cy="10233000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>252720</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>140400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1249200</xdr:colOff>
+      <xdr:colOff>1248840</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>4998240</xdr:rowOff>
+      <xdr:rowOff>4997880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="image4.png" descr=""/>
+        <xdr:cNvPr id="4" name="image4.png" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3568,7 +3545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2955600" y="6372720"/>
-          <a:ext cx="6585840" cy="10233000"/>
+          <a:ext cx="6585480" cy="10232640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3589,13 +3566,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1861200</xdr:colOff>
+      <xdr:colOff>1860840</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>5039280</xdr:rowOff>
+      <xdr:rowOff>5038920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="image1.png" descr=""/>
+        <xdr:cNvPr id="5" name="image1.png" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3605,7 +3582,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3567600" y="20072880"/>
-          <a:ext cx="6585840" cy="10233000"/>
+          <a:ext cx="6585480" cy="10232640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3626,13 +3603,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1071000</xdr:colOff>
+      <xdr:colOff>1070640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="image5.png" descr=""/>
+        <xdr:cNvPr id="6" name="image5.png" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3642,7 +3619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2777400" y="21929400"/>
-          <a:ext cx="6585840" cy="10233000"/>
+          <a:ext cx="6585480" cy="10232640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3663,19 +3640,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1623240</xdr:colOff>
+      <xdr:colOff>1622880</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Shape 17"/>
+        <xdr:cNvPr id="7" name="Shape 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5112000" y="30818160"/>
-          <a:ext cx="1917360" cy="360"/>
+          <a:ext cx="1917000" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3719,13 +3696,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>173880</xdr:colOff>
+      <xdr:colOff>173520</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="image6.png" descr=""/>
+        <xdr:cNvPr id="8" name="image6.png" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3735,7 +3712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5448960" y="30303720"/>
-          <a:ext cx="131040" cy="131040"/>
+          <a:ext cx="130680" cy="130680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3756,19 +3733,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2575080</xdr:colOff>
+      <xdr:colOff>2574720</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>360360</xdr:rowOff>
+      <xdr:rowOff>360000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Shape 19"/>
+        <xdr:cNvPr id="9" name="Shape 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5135400" y="30526200"/>
-          <a:ext cx="142560" cy="142560"/>
+          <a:ext cx="142200" cy="142200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3988,10 +3965,10 @@
   <dimension ref="B1:F37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A10:G13 B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="40.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.67"/>
@@ -4497,11 +4474,11 @@
   </sheetPr>
   <dimension ref="B1:E56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A10:G13 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="71.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.88"/>
@@ -4521,10 +4498,10 @@
       <c r="B2" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="D2" s="73" t="n">
+      <c r="D2" s="71" t="n">
         <v>975</v>
       </c>
       <c r="E2" s="3"/>
@@ -4533,10 +4510,10 @@
       <c r="B3" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="D3" s="73" t="n">
+      <c r="D3" s="71" t="n">
         <v>780</v>
       </c>
       <c r="E3" s="3"/>
@@ -4545,10 +4522,10 @@
       <c r="B4" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="73" t="n">
+      <c r="D4" s="71" t="n">
         <v>780</v>
       </c>
       <c r="E4" s="3"/>
@@ -4557,10 +4534,10 @@
       <c r="B5" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="D5" s="73" t="n">
+      <c r="D5" s="71" t="n">
         <v>720</v>
       </c>
       <c r="E5" s="3"/>
@@ -4569,10 +4546,10 @@
       <c r="B6" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="D6" s="73" t="n">
+      <c r="D6" s="71" t="n">
         <v>700</v>
       </c>
       <c r="E6" s="3"/>
@@ -4581,10 +4558,10 @@
       <c r="B7" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="73" t="n">
+      <c r="D7" s="71" t="n">
         <v>700</v>
       </c>
       <c r="E7" s="3"/>
@@ -4593,10 +4570,10 @@
       <c r="B8" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="D8" s="73" t="n">
+      <c r="D8" s="71" t="n">
         <v>380</v>
       </c>
       <c r="E8" s="3"/>
@@ -4605,10 +4582,10 @@
       <c r="B9" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="D9" s="73" t="n">
+      <c r="D9" s="71" t="n">
         <v>380</v>
       </c>
       <c r="E9" s="3"/>
@@ -4617,10 +4594,10 @@
       <c r="B10" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="D10" s="73" t="n">
+      <c r="D10" s="71" t="n">
         <v>300</v>
       </c>
       <c r="E10" s="3"/>
@@ -4629,10 +4606,10 @@
       <c r="B11" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="D11" s="73" t="n">
+      <c r="D11" s="71" t="n">
         <v>390</v>
       </c>
       <c r="E11" s="3"/>
@@ -4641,10 +4618,10 @@
       <c r="B12" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="D12" s="73" t="n">
+      <c r="D12" s="71" t="n">
         <v>390</v>
       </c>
       <c r="E12" s="3"/>
@@ -4653,10 +4630,10 @@
       <c r="B13" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="D13" s="73" t="n">
+      <c r="D13" s="71" t="n">
         <v>110</v>
       </c>
       <c r="E13" s="3"/>
@@ -4678,28 +4655,28 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="72" t="s">
         <v>498</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
     </row>
     <row r="17" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
     </row>
     <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="74" t="s">
         <v>500</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="4" t="s">
@@ -4710,20 +4687,20 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="72" t="s">
         <v>502</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="74" t="s">
         <v>503</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="s">
@@ -4734,82 +4711,82 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="72" t="s">
         <v>505</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-    </row>
-    <row r="24" customFormat="false" ht="409" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="397" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="77" t="s">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-    </row>
-    <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="70" t="s">
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="68" t="s">
         <v>507</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-    </row>
-    <row r="28" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="78" t="s">
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="76" t="s">
         <v>508</v>
       </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-    </row>
-    <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="70" t="s">
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="68" t="s">
         <v>509</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-    </row>
-    <row r="30" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="74" t="s">
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="72" t="s">
         <v>510</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-    </row>
-    <row r="31" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="75" t="s">
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="73" t="s">
         <v>511</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-    </row>
-    <row r="32" customFormat="false" ht="94.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="76" t="s">
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="74" t="s">
         <v>512</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-    </row>
-    <row r="33" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="s">
         <v>513</v>
       </c>
@@ -4817,67 +4794,67 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="70" t="s">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="68" t="s">
         <v>514</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-    </row>
-    <row r="35" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="74" t="s">
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="72" t="s">
         <v>515</v>
       </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-    </row>
-    <row r="36" customFormat="false" ht="89.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="75" t="s">
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="73" t="s">
         <v>516</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-    </row>
-    <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="70" t="s">
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="68" t="s">
         <v>517</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-    </row>
-    <row r="38" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="74" t="s">
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="72" t="s">
         <v>518</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-    </row>
-    <row r="39" customFormat="false" ht="409" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="397" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="76" t="s">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="74" t="s">
         <v>506</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-    </row>
-    <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="4" t="s">
         <v>519</v>
       </c>
@@ -4885,39 +4862,39 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="74" t="s">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="72" t="s">
         <v>520</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-    </row>
-    <row r="44" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="75" t="s">
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="73" t="s">
         <v>521</v>
       </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-    </row>
-    <row r="45" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="75" t="s">
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="73" t="s">
         <v>522</v>
       </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-    </row>
-    <row r="46" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="76" t="s">
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="74" t="s">
         <v>523</v>
       </c>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-    </row>
-    <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="4" t="s">
         <v>524</v>
       </c>
@@ -4925,23 +4902,23 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="74" t="s">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="72" t="s">
         <v>525</v>
       </c>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-    </row>
-    <row r="49" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="76" t="s">
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="74" t="s">
         <v>526</v>
       </c>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-    </row>
-    <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="4" t="s">
         <v>527</v>
       </c>
@@ -4949,23 +4926,23 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="74" t="s">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="72" t="s">
         <v>528</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-    </row>
-    <row r="52" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="76" t="s">
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="74" t="s">
         <v>529</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-    </row>
-    <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="4" t="s">
         <v>530</v>
       </c>
@@ -4973,21 +4950,21 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="74" t="s">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="72" t="s">
         <v>531</v>
       </c>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-    </row>
-    <row r="55" customFormat="false" ht="409" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="397" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5041,7 +5018,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5053,10 +5029,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="A10:G13 B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
@@ -5320,10 +5296,10 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A10:G13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="42.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.22"/>
@@ -5342,138 +5318,138 @@
       <c r="F1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="68" t="s">
         <v>548</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="72" t="s">
         <v>549</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>550</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="68" t="s">
         <v>551</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="72" t="s">
         <v>552</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
     </row>
     <row r="7" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="77" t="s">
         <v>553</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="78" t="s">
         <v>555</v>
       </c>
-      <c r="F7" s="81"/>
+      <c r="F7" s="78"/>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="68" t="s">
         <v>556</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="72" t="s">
         <v>557</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
     </row>
     <row r="10" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="s">
         <v>558</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="82" t="n">
+      <c r="D10" s="79" t="n">
         <v>1600</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="72" t="s">
         <v>559</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="74" t="s">
         <v>560</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="6" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="72" t="s">
         <v>562</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="68" t="s">
         <v>563</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="72" t="s">
         <v>564</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="16" customFormat="false" ht="409" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="3"/>
@@ -5499,13 +5475,13 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="72" t="s">
         <v>566</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="4" t="s">
@@ -5517,13 +5493,13 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="72" t="s">
         <v>568</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="s">
@@ -5535,13 +5511,13 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="72" t="s">
         <v>570</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="4" t="s">
@@ -5553,13 +5529,13 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="80" t="s">
         <v>572</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="4" t="s">
@@ -5571,13 +5547,13 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="72" t="s">
         <v>574</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
     </row>
     <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="4" t="s">
@@ -5589,13 +5565,13 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="72" t="s">
         <v>576</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
     </row>
     <row r="30" customFormat="false" ht="409" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="3"/>
@@ -5612,22 +5588,22 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="81" t="s">
         <v>577</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
     </row>
     <row r="33" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="81" t="s">
         <v>578</v>
       </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -5682,10 +5658,10 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K49" activeCellId="1" sqref="A10:G13 K49"/>
+      <selection pane="topLeft" activeCell="K49" activeCellId="0" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
@@ -7770,11 +7746,11 @@
   </sheetPr>
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="A10:G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
@@ -7818,7 +7794,7 @@
       </c>
       <c r="P1" s="33" t="str">
         <f aca="false">CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1)</f>
-        <v>&lt;a href="#" data-popup="#popup_130" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Хіросіма&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 50 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;120 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_130" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Хіросіма&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 50 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;120 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q1" s="18" t="s">
         <v>155</v>
@@ -7870,7 +7846,7 @@
       </c>
       <c r="P2" s="33" t="str">
         <f aca="false">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2)</f>
-        <v>&lt;a href="#" data-popup="#popup_131" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лексус&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 50 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;110 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_131" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лексус&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 50 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;110 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q2" s="18" t="s">
         <v>155</v>
@@ -7922,7 +7898,7 @@
       </c>
       <c r="P3" s="33" t="str">
         <f aca="false">CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3)</f>
-        <v>&lt;a href="#" data-popup="#popup_132" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Б-52&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 50 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;120 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_132" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Б-52&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 50 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;120 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>155</v>
@@ -8240,10 +8216,10 @@
   <dimension ref="A1:R265"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A138" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C154" activeCellId="1" sqref="A10:G13 C154"/>
+      <selection pane="topLeft" activeCell="C154" activeCellId="0" sqref="C154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="67.12"/>
@@ -8307,7 +8283,7 @@
       </c>
       <c r="N2" s="0" t="str">
         <f aca="false">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2)</f>
-        <v>&lt;a href="#" data-popup="#popup_74" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Рис з овочами&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;95 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_74" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Рис з овочами&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;95 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8352,7 +8328,7 @@
       </c>
       <c r="N3" s="0" t="str">
         <f aca="false">CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3)</f>
-        <v>&lt;a href="#" data-popup="#popup_75" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Овочі гриль&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;95 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_75" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Овочі гриль&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;95 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8397,7 +8373,7 @@
       </c>
       <c r="N4" s="0" t="str">
         <f aca="false">CONCATENATE(A4,B4,C4,D4,E4,F4,G4,H4,I4,J4,K4,L4,M4)</f>
-        <v>&lt;a href="#" data-popup="#popup_76" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лаваш з сиром&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;95 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_76" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лаваш з сиром&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;95 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8442,7 +8418,7 @@
       </c>
       <c r="N5" s="0" t="str">
         <f aca="false">CONCATENATE(A5,B5,C5,D5,E5,F5,G5,H5,I5,J5,K5,L5,M5)</f>
-        <v>&lt;a href="#" data-popup="#popup_77" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лаваш з курячим філе та томатами&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;135 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_77" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лаваш з курячим філе та томатами&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;135 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8487,7 +8463,7 @@
       </c>
       <c r="N6" s="0" t="str">
         <f aca="false">CONCATENATE(A6,B6,C6,D6,E6,F6,G6,H6,I6,J6,K6,L6,M6)</f>
-        <v>&lt;a href="#" data-popup="#popup_78" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лаваш з телятиною та соленим огірком&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;160 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_78" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лаваш з телятиною та соленим огірком&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;160 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8532,7 +8508,7 @@
       </c>
       <c r="N7" s="0" t="str">
         <f aca="false">CONCATENATE(A7,B7,C7,D7,E7,F7,G7,H7,I7,J7,K7,L7,M7)</f>
-        <v>&lt;a href="#" data-popup="#popup_79" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Картопля печена з салом та бринзою&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;80 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_79" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Картопля печена з салом та бринзою&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;80 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8577,7 +8553,7 @@
       </c>
       <c r="N8" s="0" t="str">
         <f aca="false">CONCATENATE(A8,B8,C8,D8,E8,F8,G8,H8,I8,J8,K8,L8,M8)</f>
-        <v>&lt;a href="#" data-popup="#popup_80" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Картопля по домашньому&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;60 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_80" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Картопля по домашньому&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;60 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8622,7 +8598,7 @@
       </c>
       <c r="N9" s="0" t="str">
         <f aca="false">CONCATENATE(A9,B9,C9,D9,E9,F9,G9,H9,I9,J9,K9,L9,M9)</f>
-        <v>&lt;a href="#" data-popup="#popup_81" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Палента з соусом Песто&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;70 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_81" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Палента з соусом Песто&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;70 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8667,7 +8643,7 @@
       </c>
       <c r="N10" s="0" t="str">
         <f aca="false">CONCATENATE(A10,B10,C10,D10,E10,F10,G10,H10,I10,J10,K10,L10,M10)</f>
-        <v>&lt;a href="#" data-popup="#popup_82" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Шпинатна подушка&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;90 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_82" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Шпинатна подушка&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;90 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8712,7 +8688,7 @@
       </c>
       <c r="N11" s="0" t="str">
         <f aca="false">CONCATENATE(A11,B11,C11,D11,E11,F11,G11,H11,I11,J11,K11,L11,M11)</f>
-        <v>&lt;a href="#" data-popup="#popup_83" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Спаржа&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 100 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;90 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_83" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Спаржа&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 100 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;90 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9232,7 +9208,7 @@
       </c>
       <c r="N24" s="0" t="str">
         <f aca="false">CONCATENATE(A24,B24,C24,D24,E24,F24,G24,H24,I24,J24,K24,L24,M24)</f>
-        <v>&lt;a href="#" data-popup="#popup_84" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Фондан шоколадний&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 140 г / 40 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;150 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_84" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Фондан шоколадний&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 140 г / 40 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;150 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9277,7 +9253,7 @@
       </c>
       <c r="N25" s="0" t="str">
         <f aca="false">CONCATENATE(A25,B25,C25,D25,E25,F25,G25,H25,I25,J25,K25,L25,M25)</f>
-        <v>&lt;a href="#" data-popup="#popup_85" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лимонний тарт&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 140 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;150 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_85" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лимонний тарт&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 140 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;150 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9322,7 +9298,7 @@
       </c>
       <c r="N26" s="0" t="str">
         <f aca="false">CONCATENATE(A26,B26,C26,D26,E26,F26,G26,H26,I26,J26,K26,L26,M26)</f>
-        <v>&lt;a href="#" data-popup="#popup_86" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Чізкейк&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 140 г / 40 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;95 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_86" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Чізкейк&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 140 г / 40 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;95 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9367,7 +9343,7 @@
       </c>
       <c r="N27" s="0" t="str">
         <f aca="false">CONCATENATE(A27,B27,C27,D27,E27,F27,G27,H27,I27,J27,K27,L27,M27)</f>
-        <v>&lt;a href="#" data-popup="#popup_87" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Штрудель&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;90 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_87" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Штрудель&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;90 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9412,7 +9388,7 @@
       </c>
       <c r="N28" s="0" t="str">
         <f aca="false">CONCATENATE(A28,B28,C28,D28,E28,F28,G28,H28,I28,J28,K28,L28,M28)</f>
-        <v>&lt;a href="#" data-popup="#popup_88" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Млинці з творогом&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;95 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_88" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Млинці з творогом&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;95 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9457,7 +9433,7 @@
       </c>
       <c r="N29" s="0" t="str">
         <f aca="false">CONCATENATE(A29,B29,C29,D29,E29,F29,G29,H29,I29,J29,K29,L29,M29)</f>
-        <v>&lt;a href="#" data-popup="#popup_89" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Млинці з медом та горіхами&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;95 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_89" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Млинці з медом та горіхами&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;95 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9502,7 +9478,7 @@
       </c>
       <c r="N30" s="0" t="str">
         <f aca="false">CONCATENATE(A30,B30,C30,D30,E30,F30,G30,H30,I30,J30,K30,L30,M30)</f>
-        <v>&lt;a href="#" data-popup="#popup_90" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Сирники з сметаною&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;130 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_90" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Сирники з сметаною&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;130 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9547,7 +9523,7 @@
       </c>
       <c r="N31" s="0" t="str">
         <f aca="false">CONCATENATE(A31,B31,C31,D31,E31,F31,G31,H31,I31,J31,K31,L31,M31)</f>
-        <v>&lt;a href="#" data-popup="#popup_91" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Мілкшейк вершковий&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;120 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_91" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Мілкшейк вершковий&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;120 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9592,7 +9568,7 @@
       </c>
       <c r="N32" s="0" t="str">
         <f aca="false">CONCATENATE(A32,B32,C32,D32,E32,F32,G32,H32,I32,J32,K32,L32,M32)</f>
-        <v>&lt;a href="#" data-popup="#popup_92" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Мілкшейк шоколадний&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;120 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_92" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Мілкшейк шоколадний&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;120 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9635,7 +9611,7 @@
       </c>
       <c r="N33" s="0" t="str">
         <f aca="false">CONCATENATE(A33,B33,C33,D33,E33,F33,G33,H33,I33,J33,K33,L33,M33)</f>
-        <v>&lt;a href="#" data-popup="#popup_93" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Мілкшейк ягідний&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага &lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;120 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_93" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Мілкшейк ягідний&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага &lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;120 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="36" s="45" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10131,7 +10107,7 @@
       </c>
       <c r="N49" s="0" t="str">
         <f aca="false">CONCATENATE(A49,B49,C49,D49,E49,F49,G49,H49,I49,J49,K49,L49,M49)</f>
-        <v>&lt;a href="#" data-popup="#popup_94" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Рістрето&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;25 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_94" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Рістрето&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;25 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10173,7 +10149,7 @@
       </c>
       <c r="N50" s="0" t="str">
         <f aca="false">CONCATENATE(A50,B50,C50,D50,E50,F50,G50,H50,I50,J50,K50,L50,M50)</f>
-        <v>&lt;a href="#" data-popup="#popup_95" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Рістрето без кофеїну&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;30 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_95" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Рістрето без кофеїну&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;30 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10215,7 +10191,7 @@
       </c>
       <c r="N51" s="0" t="str">
         <f aca="false">CONCATENATE(A51,B51,C51,D51,E51,F51,G51,H51,I51,J51,K51,L51,M51)</f>
-        <v>&lt;a href="#" data-popup="#popup_96" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Еспресо&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;25 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_96" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Еспресо&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;25 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10257,7 +10233,7 @@
       </c>
       <c r="N52" s="0" t="str">
         <f aca="false">CONCATENATE(A52,B52,C52,D52,E52,F52,G52,H52,I52,J52,K52,L52,M52)</f>
-        <v>&lt;a href="#" data-popup="#popup_97" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Еспресо без кофеїну&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;30 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_97" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Еспресо без кофеїну&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;30 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10299,7 +10275,7 @@
       </c>
       <c r="N53" s="0" t="str">
         <f aca="false">CONCATENATE(A53,B53,C53,D53,E53,F53,G53,H53,I53,J53,K53,L53,M53)</f>
-        <v>&lt;a href="#" data-popup="#popup_98" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Американо&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;25 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_98" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Американо&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;25 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10341,7 +10317,7 @@
       </c>
       <c r="N54" s="0" t="str">
         <f aca="false">CONCATENATE(A54,B54,C54,D54,E54,F54,G54,H54,I54,J54,K54,L54,M54)</f>
-        <v>&lt;a href="#" data-popup="#popup_99" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Американо без кофеїну&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;30 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_99" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Американо без кофеїну&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;30 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10383,7 +10359,7 @@
       </c>
       <c r="N55" s="0" t="str">
         <f aca="false">CONCATENATE(A55,B55,C55,D55,E55,F55,G55,H55,I55,J55,K55,L55,M55)</f>
-        <v>&lt;a href="#" data-popup="#popup_100" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Капучіно &lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;45 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_100" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Капучіно &lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;45 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10428,7 +10404,7 @@
       </c>
       <c r="N56" s="0" t="str">
         <f aca="false">CONCATENATE(A56,B56,C56,D56,E56,F56,G56,H56,I56,J56,K56,L56,M56)</f>
-        <v>&lt;a href="#" data-popup="#popup_101" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Капучіно на соєвому молоці&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;65 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_101" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Капучіно на соєвому молоці&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;65 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10470,7 +10446,7 @@
       </c>
       <c r="N57" s="0" t="str">
         <f aca="false">CONCATENATE(A57,B57,C57,D57,E57,F57,G57,H57,I57,J57,K57,L57,M57)</f>
-        <v>&lt;a href="#" data-popup="#popup_102" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Капучіно без кофеїну&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;50 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_102" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Капучіно без кофеїну&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;50 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10515,7 +10491,7 @@
       </c>
       <c r="N58" s="0" t="str">
         <f aca="false">CONCATENATE(A58,B58,C58,D58,E58,F58,G58,H58,I58,J58,K58,L58,M58)</f>
-        <v>&lt;a href="#" data-popup="#popup_103" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Капучіно без кофеїну на соєвому молоці&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;70 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_103" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Капучіно без кофеїну на соєвому молоці&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;70 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10560,7 +10536,7 @@
       </c>
       <c r="N59" s="0" t="str">
         <f aca="false">CONCATENATE(A59,B59,C59,D59,E59,F59,G59,H59,I59,J59,K59,L59,M59)</f>
-        <v>&lt;a href="#" data-popup="#popup_104" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лате&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;50 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_104" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лате&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;50 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10605,7 +10581,7 @@
       </c>
       <c r="N60" s="0" t="str">
         <f aca="false">CONCATENATE(A60,B60,C60,D60,E60,F60,G60,H60,I60,J60,K60,L60,M60)</f>
-        <v>&lt;a href="#" data-popup="#popup_105" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лате на соєвому молоці&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;70 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_105" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лате на соєвому молоці&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;70 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10650,7 +10626,7 @@
       </c>
       <c r="N61" s="0" t="str">
         <f aca="false">CONCATENATE(A61,B61,C61,D61,E61,F61,G61,H61,I61,J61,K61,L61,M61)</f>
-        <v>&lt;a href="#" data-popup="#popup_106" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лате без кофеїну&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;55 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_106" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лате без кофеїну&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;55 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10695,7 +10671,7 @@
       </c>
       <c r="N62" s="0" t="str">
         <f aca="false">CONCATENATE(A62,B62,C62,D62,E62,F62,G62,H62,I62,J62,K62,L62,M62)</f>
-        <v>&lt;a href="#" data-popup="#popup_107" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лате без кофеїну на соєвому молоці&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;75 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_107" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Лате без кофеїну на соєвому молоці&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;75 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10740,7 +10716,7 @@
       </c>
       <c r="N63" s="0" t="str">
         <f aca="false">CONCATENATE(A63,B63,C63,D63,E63,F63,G63,H63,I63,J63,K63,L63,M63)</f>
-        <v>&lt;a href="#" data-popup="#popup_108" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Фраппе&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;80 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_108" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Фраппе&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;80 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10785,7 +10761,7 @@
       </c>
       <c r="N64" s="0" t="str">
         <f aca="false">CONCATENATE(A64,B64,C64,D64,E64,F64,G64,H64,I64,J64,K64,L64,M64)</f>
-        <v>&lt;a href="#" data-popup="#popup_109" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Фрапе на соєвому молоці&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;120 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_109" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Фрапе на соєвому молоці&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;120 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10830,7 +10806,7 @@
       </c>
       <c r="N65" s="0" t="str">
         <f aca="false">CONCATENATE(A65,B65,C65,D65,E65,F65,G65,H65,I65,J65,K65,L65,M65)</f>
-        <v>&lt;a href="#" data-popup="#popup_110" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Фрапе без кофеїну на соєвому молоці&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;125 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_110" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Фрапе без кофеїну на соєвому молоці&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;125 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10875,7 +10851,7 @@
       </c>
       <c r="N66" s="0" t="str">
         <f aca="false">CONCATENATE(A66,B66,C66,D66,E66,F66,G66,H66,I66,J66,K66,L66,M66)</f>
-        <v>&lt;a href="#" data-popup="#popup_111" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Какао&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;60 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_111" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Какао&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;60 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14603,7 +14579,7 @@
       </c>
       <c r="P220" s="33" t="str">
         <f aca="false">CONCATENATE(A220,B220,C220,D220,E220,F220,G220,H220,I220,J220,K220,L220,M220,N220,O220)</f>
-        <v>&lt;a href="#" data-popup="#popup_112" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Long Island Ice Tee&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 350 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;190 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_112" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Long Island Ice Tee&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 350 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;190 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q220" s="18" t="s">
         <v>155</v>
@@ -14655,7 +14631,7 @@
       </c>
       <c r="P221" s="33" t="str">
         <f aca="false">CONCATENATE(A221,B221,C221,D221,E221,F221,G221,H221,I221,J221,K221,L221,M221,N221,O221)</f>
-        <v>&lt;a href="#" data-popup="#popup_113" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Berry Killer&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;180 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_113" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Berry Killer&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;180 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q221" s="18" t="s">
         <v>155</v>
@@ -14707,7 +14683,7 @@
       </c>
       <c r="P222" s="33" t="str">
         <f aca="false">CONCATENATE(A222,B222,C222,D222,E222,F222,G222,H222,I222,J222,K222,L222,M222,N222,O222)</f>
-        <v>&lt;a href="#" data-popup="#popup_114" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Blue Lagoon&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 350 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;150 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_114" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Blue Lagoon&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 350 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;150 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q222" s="18" t="s">
         <v>155</v>
@@ -14759,7 +14735,7 @@
       </c>
       <c r="P223" s="33" t="str">
         <f aca="false">CONCATENATE(A223,B223,C223,D223,E223,F223,G223,H223,I223,J223,K223,L223,M223,N223,O223)</f>
-        <v>&lt;a href="#" data-popup="#popup_115" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Cosmopolitan&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 100 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;120 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_115" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Cosmopolitan&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 100 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;120 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q223" s="18" t="s">
         <v>155</v>
@@ -14812,7 +14788,7 @@
       </c>
       <c r="P224" s="33" t="str">
         <f aca="false">CONCATENATE(A224,B224,C224,D224,E224,F224,G224,H224,I224,J224,K224,L224,M224,N224,O224)</f>
-        <v>&lt;a href="#" data-popup="#popup_116" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Sex on Beach&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 350 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;160 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_116" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Sex on Beach&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 350 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;160 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q224" s="18" t="s">
         <v>155</v>
@@ -14864,7 +14840,7 @@
       </c>
       <c r="P225" s="33" t="str">
         <f aca="false">CONCATENATE(A225,B225,C225,D225,E225,F225,G225,H225,I225,J225,K225,L225,M225,N225,O225)</f>
-        <v>&lt;a href="#" data-popup="#popup_117" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Hungarian Merry&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;90 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_117" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Hungarian Merry&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;90 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q225" s="18" t="s">
         <v>155</v>
@@ -14916,7 +14892,7 @@
       </c>
       <c r="P226" s="33" t="str">
         <f aca="false">CONCATENATE(A226,B226,C226,D226,E226,F226,G226,H226,I226,J226,K226,L226,M226,N226,O226)</f>
-        <v>&lt;a href="#" data-popup="#popup_118" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Pina Colada&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 350 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;180 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_118" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Pina Colada&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 350 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;180 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q226" s="18" t="s">
         <v>155</v>
@@ -14968,7 +14944,7 @@
       </c>
       <c r="P227" s="33" t="str">
         <f aca="false">CONCATENATE(A227,B227,C227,D227,E227,F227,G227,H227,I227,J227,K227,L227,M227,N227,O227)</f>
-        <v>&lt;a href="#" data-popup="#popup_119" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Mojito&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;160 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_119" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Mojito&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;160 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q227" s="18" t="s">
         <v>155</v>
@@ -15020,7 +14996,7 @@
       </c>
       <c r="P228" s="33" t="str">
         <f aca="false">CONCATENATE(A228,B228,C228,D228,E228,F228,G228,H228,I228,J228,K228,L228,M228,N228,O228)</f>
-        <v>&lt;a href="#" data-popup="#popup_120" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Jin-Tonic&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;145 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_120" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Jin-Tonic&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;145 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q228" s="18" t="s">
         <v>155</v>
@@ -15072,7 +15048,7 @@
       </c>
       <c r="P229" s="33" t="str">
         <f aca="false">CONCATENATE(A229,B229,C229,D229,E229,F229,G229,H229,I229,J229,K229,L229,M229,N229,O229)</f>
-        <v>&lt;a href="#" data-popup="#popup_121" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Margarita&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 175 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;170 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_121" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Margarita&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 175 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;170 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q229" s="18" t="s">
         <v>155</v>
@@ -15124,7 +15100,7 @@
       </c>
       <c r="P230" s="33" t="str">
         <f aca="false">CONCATENATE(A230,B230,C230,D230,E230,F230,G230,H230,I230,J230,K230,L230,M230,N230,O230)</f>
-        <v>&lt;a href="#" data-popup="#popup_122" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Tequila Sunrise&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 325 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;170 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_122" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Tequila Sunrise&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 325 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;170 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q230" s="18" t="s">
         <v>155</v>
@@ -15176,7 +15152,7 @@
       </c>
       <c r="P231" s="33" t="str">
         <f aca="false">CONCATENATE(A231,B231,C231,D231,E231,F231,G231,H231,I231,J231,K231,L231,M231,N231,O231)</f>
-        <v>&lt;a href="#" data-popup="#popup_123" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Strawberry Punch&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 230 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;180 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_123" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Strawberry Punch&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 230 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;180 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q231" s="18" t="s">
         <v>155</v>
@@ -15228,7 +15204,7 @@
       </c>
       <c r="P232" s="33" t="str">
         <f aca="false">CONCATENATE(A232,B232,C232,D232,E232,F232,G232,H232,I232,J232,K232,L232,M232,N232,O232)</f>
-        <v>&lt;a href="#" data-popup="#popup_124" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Aperol&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;140 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_124" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Aperol&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;140 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q232" s="18" t="s">
         <v>155</v>
@@ -15280,7 +15256,7 @@
       </c>
       <c r="P233" s="33" t="str">
         <f aca="false">CONCATENATE(A233,B233,C233,D233,E233,F233,G233,H233,I233,J233,K233,L233,M233,N233,O233)</f>
-        <v>&lt;a href="#" data-popup="#popup_125" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Martini Royal&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 175 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;135 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_125" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Martini Royal&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 175 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;135 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q233" s="18" t="s">
         <v>155</v>
@@ -15332,7 +15308,7 @@
       </c>
       <c r="P234" s="33" t="str">
         <f aca="false">CONCATENATE(A234,B234,C234,D234,E234,F234,G234,H234,I234,J234,K234,L234,M234,N234,O234)</f>
-        <v>&lt;a href="#" data-popup="#popup_126" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Penicillin&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 150 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;165 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_126" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Penicillin&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 150 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;165 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q234" s="18" t="s">
         <v>155</v>
@@ -15384,7 +15360,7 @@
       </c>
       <c r="P235" s="33" t="str">
         <f aca="false">CONCATENATE(A235,B235,C235,D235,E235,F235,G235,H235,I235,J235,K235,L235,M235,N235,O235)</f>
-        <v>&lt;a href="#" data-popup="#popup_127" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Hugo Sprits&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;140 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_127" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Hugo Sprits&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 250 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;140 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q235" s="18" t="s">
         <v>155</v>
@@ -15436,7 +15412,7 @@
       </c>
       <c r="P236" s="33" t="str">
         <f aca="false">CONCATENATE(A236,B236,C236,D236,E236,F236,G236,H236,I236,J236,K236,L236,M236,N236,O236)</f>
-        <v>&lt;a href="#" data-popup="#popup_128" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Negroni&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 100 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;140 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_128" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Negroni&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 100 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;140 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q236" s="18" t="s">
         <v>155</v>
@@ -15488,7 +15464,7 @@
       </c>
       <c r="P237" s="33" t="str">
         <f aca="false">CONCATENATE(A237,B237,C237,D237,E237,F237,G237,H237,I237,J237,K237,L237,M237,N237,O237)</f>
-        <v>&lt;a href="#" data-popup="#popup_129" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Berry whiskey&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 100 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;170 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+        <v>&lt;a href="#" data-popup="#popup_129" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Berry whiskey&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 100 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;170 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt;</v>
       </c>
       <c r="Q237" s="18" t="s">
         <v>155</v>
@@ -16453,10 +16429,10 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="1" sqref="A10:G13 F34"/>
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.89"/>
@@ -16566,31 +16542,31 @@
         <v>53</v>
       </c>
       <c r="F8" s="53"/>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="H8" s="54"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>419</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="13" t="s">
@@ -16732,14 +16708,14 @@
         <v>420</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58" t="s">
+      <c r="E20" s="56"/>
+      <c r="F20" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="G20" s="58"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16747,10 +16723,10 @@
         <v>246</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="E21" s="59"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
@@ -16760,10 +16736,10 @@
         <v>247</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="E22" s="59"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
@@ -16773,10 +16749,10 @@
         <v>248</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="59"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="52" t="s">
         <v>198</v>
       </c>
@@ -16788,10 +16764,10 @@
         <v>250</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="E24" s="59"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="52" t="s">
         <v>230</v>
       </c>
@@ -16803,10 +16779,10 @@
         <v>251</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="59"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="52" t="s">
         <v>230</v>
       </c>
@@ -16818,10 +16794,10 @@
         <v>252</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="59"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="52" t="s">
         <v>230</v>
       </c>
@@ -16833,10 +16809,10 @@
         <v>253</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="E27" s="59"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="52" t="s">
         <v>230</v>
       </c>
@@ -16859,10 +16835,10 @@
         <v>254</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="E29" s="60"/>
+      <c r="E29" s="59"/>
       <c r="F29" s="52" t="s">
         <v>256</v>
       </c>
@@ -16874,10 +16850,10 @@
         <v>257</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="E30" s="60"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="52" t="s">
         <v>258</v>
       </c>
@@ -16889,10 +16865,10 @@
         <v>259</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="60"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="52" t="s">
         <v>260</v>
       </c>
@@ -16904,10 +16880,10 @@
         <v>422</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="E32" s="60"/>
+      <c r="E32" s="59"/>
       <c r="F32" s="52" t="s">
         <v>226</v>
       </c>
@@ -17216,10 +17192,10 @@
   <dimension ref="B1:G35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="A10:G13 D23"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="53.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.88"/>
@@ -17481,11 +17457,11 @@
         <v>431</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="60" t="s">
         <v>432</v>
       </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62" t="s">
+      <c r="F22" s="60"/>
+      <c r="G22" s="61" t="s">
         <v>433</v>
       </c>
     </row>
@@ -17526,14 +17502,14 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="63" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="62" t="s">
         <v>436</v>
       </c>
-      <c r="E26" s="63"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
@@ -17721,10 +17697,10 @@
   <dimension ref="B1:E43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="1" sqref="A10:G13 E41"/>
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.89"/>
@@ -17745,7 +17721,7 @@
         <v>326</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -17757,7 +17733,7 @@
         <v>327</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E3" s="52" t="s">
@@ -17769,7 +17745,7 @@
         <v>440</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E4" s="52" t="s">
@@ -17781,7 +17757,7 @@
         <v>329</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E5" s="52" t="s">
@@ -17793,7 +17769,7 @@
         <v>330</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E6" s="52" t="s">
@@ -17805,7 +17781,7 @@
         <v>331</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E7" s="52" t="s">
@@ -17817,7 +17793,7 @@
         <v>332</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E8" s="52" t="s">
@@ -17829,7 +17805,7 @@
         <v>333</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E9" s="52" t="s">
@@ -17841,7 +17817,7 @@
         <v>334</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E10" s="52" t="s">
@@ -17853,7 +17829,7 @@
         <v>336</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -17873,7 +17849,7 @@
         <v>305</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E13" s="52" t="s">
@@ -17885,7 +17861,7 @@
         <v>307</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E14" s="52" t="s">
@@ -17897,7 +17873,7 @@
         <v>309</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E15" s="52" t="s">
@@ -17909,7 +17885,7 @@
         <v>310</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -17921,7 +17897,7 @@
         <v>311</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E17" s="52" t="s">
@@ -17933,7 +17909,7 @@
         <v>312</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E18" s="52" t="s">
@@ -17953,7 +17929,7 @@
         <v>337</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="64" t="s">
         <v>338</v>
       </c>
       <c r="E20" s="52" t="s">
@@ -17965,7 +17941,7 @@
         <v>340</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="64" t="s">
         <v>338</v>
       </c>
       <c r="E21" s="52" t="s">
@@ -17977,7 +17953,7 @@
         <v>342</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="64" t="s">
         <v>338</v>
       </c>
       <c r="E22" s="52" t="s">
@@ -17989,7 +17965,7 @@
         <v>448</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="64" t="s">
         <v>338</v>
       </c>
       <c r="E23" s="52" t="s">
@@ -18001,7 +17977,7 @@
         <v>345</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="64" t="s">
         <v>338</v>
       </c>
       <c r="E24" s="52" t="s">
@@ -18013,7 +17989,7 @@
         <v>347</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="64" t="s">
         <v>338</v>
       </c>
       <c r="E25" s="52" t="s">
@@ -18025,7 +18001,7 @@
         <v>349</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="64" t="s">
         <v>338</v>
       </c>
       <c r="E26" s="52" t="s">
@@ -18037,7 +18013,7 @@
         <v>350</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="64" t="s">
         <v>338</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -18049,7 +18025,7 @@
         <v>352</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="64" t="s">
         <v>338</v>
       </c>
       <c r="E28" s="52" t="s">
@@ -18061,7 +18037,7 @@
         <v>354</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="64" t="s">
         <v>338</v>
       </c>
       <c r="E29" s="52" t="s">
@@ -18073,7 +18049,7 @@
         <v>355</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="64" t="s">
         <v>393</v>
       </c>
       <c r="E30" s="52" t="s">
@@ -18093,7 +18069,7 @@
         <v>356</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="63" t="s">
         <v>150</v>
       </c>
       <c r="E32" s="52" t="s">
@@ -18112,10 +18088,10 @@
       <c r="B34" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="63" t="s">
         <v>358</v>
       </c>
-      <c r="D34" s="64"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="52" t="s">
         <v>359</v>
       </c>
@@ -18124,10 +18100,10 @@
       <c r="B35" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="D35" s="66"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="52" t="s">
         <v>228</v>
       </c>
@@ -18136,10 +18112,10 @@
       <c r="B36" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="63" t="s">
         <v>358</v>
       </c>
-      <c r="D36" s="64"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="52" t="s">
         <v>363</v>
       </c>
@@ -18148,10 +18124,10 @@
       <c r="B37" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="D37" s="66"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="52" t="s">
         <v>176</v>
       </c>
@@ -18160,10 +18136,10 @@
       <c r="B38" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="D38" s="66"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="52" t="s">
         <v>157</v>
       </c>
@@ -18172,10 +18148,10 @@
       <c r="B39" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="63" t="s">
         <v>358</v>
       </c>
-      <c r="D39" s="64"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="52" t="s">
         <v>368</v>
       </c>
@@ -18184,10 +18160,10 @@
       <c r="B40" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="53" t="s">
         <v>370</v>
       </c>
-      <c r="D40" s="66"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="52" t="s">
         <v>194</v>
       </c>
@@ -18196,10 +18172,10 @@
       <c r="B41" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="D41" s="66"/>
+      <c r="D41" s="53"/>
       <c r="E41" s="52" t="s">
         <v>371</v>
       </c>
@@ -18279,10 +18255,10 @@
   <dimension ref="B1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A10:G13 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="67.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.88"/>
@@ -18311,7 +18287,7 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="65" t="s">
         <v>457</v>
       </c>
       <c r="C3" s="5"/>
@@ -18319,19 +18295,19 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="66" t="s">
         <v>458</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="65" t="s">
         <v>459</v>
       </c>
       <c r="C5" s="5"/>
@@ -18339,199 +18315,199 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="66" t="s">
         <v>460</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="67" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="62" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="66" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="66" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="67" t="s">
         <v>373</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="62" t="s">
         <v>437</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="66" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="62" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="66" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="67" t="s">
         <v>373</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="62" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="66" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="62" t="s">
         <v>437</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="66" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="62" t="s">
         <v>435</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="66" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="67" t="s">
         <v>385</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="62" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="62" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="66" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="66" t="s">
         <v>470</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="62" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="66" t="s">
         <v>471</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="67" t="s">
         <v>385</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="62" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="66" t="s">
         <v>472</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="67" t="s">
         <v>393</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="62" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="66" t="s">
         <v>473</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="62" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="66" t="s">
         <v>474</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="62" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="66" t="s">
         <v>475</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="62" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="65" t="s">
         <v>476</v>
       </c>
       <c r="C22" s="5"/>
@@ -18573,10 +18549,10 @@
   <dimension ref="B1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A10:G13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="58.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8"/>
@@ -18596,40 +18572,40 @@
       <c r="B2" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="68" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>478</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="68" t="s">
         <v>426</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="69" t="s">
         <v>479</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="68" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="70" t="s">
         <v>480</v>
       </c>
       <c r="C5" s="5"/>
@@ -18648,10 +18624,10 @@
       <c r="B7" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="68" t="s">
         <v>434</v>
       </c>
       <c r="E7" s="3"/>
@@ -18660,10 +18636,10 @@
       <c r="B8" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="68" t="s">
         <v>434</v>
       </c>
       <c r="E8" s="3"/>
@@ -18672,10 +18648,10 @@
       <c r="B9" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="68" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="3"/>
@@ -18684,10 +18660,10 @@
       <c r="B10" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="68" t="s">
         <v>434</v>
       </c>
       <c r="E10" s="3"/>
@@ -18704,7 +18680,7 @@
       <c r="B12" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>483</v>
       </c>
       <c r="D12" s="52" t="s">
@@ -18716,7 +18692,7 @@
       <c r="B13" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="64" t="s">
         <v>373</v>
       </c>
       <c r="D13" s="52" t="s">
@@ -18728,7 +18704,7 @@
       <c r="B14" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>486</v>
       </c>
       <c r="D14" s="52" t="s">
@@ -18740,7 +18716,7 @@
       <c r="B15" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="64" t="s">
         <v>486</v>
       </c>
       <c r="D15" s="52" t="s">
@@ -18752,7 +18728,7 @@
       <c r="B16" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="64" t="s">
         <v>486</v>
       </c>
       <c r="D16" s="52" t="s">
@@ -18764,7 +18740,7 @@
       <c r="B17" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="64" t="s">
         <v>486</v>
       </c>
       <c r="D17" s="52" t="s">
@@ -18776,7 +18752,7 @@
       <c r="B18" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="64" t="s">
         <v>486</v>
       </c>
       <c r="D18" s="52" t="s">
@@ -18788,7 +18764,7 @@
       <c r="B19" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="64" t="s">
         <v>486</v>
       </c>
       <c r="D19" s="52" t="s">
@@ -18800,7 +18776,7 @@
       <c r="B20" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>486</v>
       </c>
       <c r="D20" s="52" t="s">
@@ -18812,7 +18788,7 @@
       <c r="B21" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="64" t="s">
         <v>486</v>
       </c>
       <c r="D21" s="52" t="s">
@@ -18824,7 +18800,7 @@
       <c r="B22" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="64" t="s">
         <v>486</v>
       </c>
       <c r="D22" s="52" t="s">

--- a/menu_files/166825177696027.xlsx
+++ b/menu_files/166825177696027.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="580">
   <si>
     <t xml:space="preserve">ЗАКУСКИ</t>
   </si>
@@ -1279,6 +1279,9 @@
   </si>
   <si>
     <t xml:space="preserve">віскі, лимонний фреш, гранатовий сироп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220 грн.</t>
   </si>
   <si>
     <t xml:space="preserve">Капучіно
@@ -2949,7 +2952,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2959,7 +2962,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2975,7 +2978,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2991,7 +2994,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3123,7 +3126,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3160,10 +3163,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3219,7 +3218,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3361,9 +3360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1368000</xdr:colOff>
+      <xdr:colOff>1367640</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>4993920</xdr:rowOff>
+      <xdr:rowOff>4993560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3377,7 +3376,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3412080" y="8864280"/>
-          <a:ext cx="6586200" cy="10232640"/>
+          <a:ext cx="6585840" cy="10232280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3403,9 +3402,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>946080</xdr:colOff>
+      <xdr:colOff>945720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>4993200</xdr:rowOff>
+      <xdr:rowOff>4992840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3419,7 +3418,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4230000" y="15836040"/>
-          <a:ext cx="6585840" cy="10232640"/>
+          <a:ext cx="6585480" cy="10232280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3445,9 +3444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1354320</xdr:colOff>
+      <xdr:colOff>1353960</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>5018040</xdr:rowOff>
+      <xdr:rowOff>5017680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3461,7 +3460,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5117040" y="8332920"/>
-          <a:ext cx="6586200" cy="10232640"/>
+          <a:ext cx="6585840" cy="10232280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3487,9 +3486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>756360</xdr:colOff>
+      <xdr:colOff>756000</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>5002200</xdr:rowOff>
+      <xdr:rowOff>5001840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3503,7 +3502,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3983760" y="5764320"/>
-          <a:ext cx="6585840" cy="10232640"/>
+          <a:ext cx="6585480" cy="10232280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3529,9 +3528,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1248840</xdr:colOff>
+      <xdr:colOff>1248480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>4997880</xdr:rowOff>
+      <xdr:rowOff>4997520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3545,7 +3544,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2955600" y="6372720"/>
-          <a:ext cx="6585480" cy="10232640"/>
+          <a:ext cx="6585120" cy="10232280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3566,9 +3565,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1860840</xdr:colOff>
+      <xdr:colOff>1860480</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>5038920</xdr:rowOff>
+      <xdr:rowOff>5038560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3582,7 +3581,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3567600" y="20072880"/>
-          <a:ext cx="6585480" cy="10232640"/>
+          <a:ext cx="6585120" cy="10232280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3603,9 +3602,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1070640</xdr:colOff>
+      <xdr:colOff>1070280</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3619,7 +3618,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2777400" y="21929400"/>
-          <a:ext cx="6585480" cy="10232640"/>
+          <a:ext cx="6585120" cy="10232280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3640,7 +3639,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1622880</xdr:colOff>
+      <xdr:colOff>1622520</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
@@ -3652,7 +3651,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5112000" y="30818160"/>
-          <a:ext cx="1917000" cy="360"/>
+          <a:ext cx="1916640" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3696,9 +3695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>173520</xdr:colOff>
+      <xdr:colOff>173160</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3712,7 +3711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5448960" y="30303720"/>
-          <a:ext cx="130680" cy="130680"/>
+          <a:ext cx="130320" cy="130320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3733,9 +3732,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2574720</xdr:colOff>
+      <xdr:colOff>2574360</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>360000</xdr:rowOff>
+      <xdr:rowOff>359640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3745,7 +3744,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5135400" y="30526200"/>
-          <a:ext cx="142200" cy="142200"/>
+          <a:ext cx="141840" cy="141840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3964,11 +3963,11 @@
   </sheetPr>
   <dimension ref="B1:F37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="N276:N281 B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="40.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.67"/>
@@ -4474,11 +4473,11 @@
   </sheetPr>
   <dimension ref="B1:E56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="N276:N281 B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="71.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.88"/>
@@ -4488,7 +4487,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -4498,10 +4497,10 @@
       <c r="B2" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="D2" s="71" t="n">
+      <c r="D2" s="70" t="n">
         <v>975</v>
       </c>
       <c r="E2" s="3"/>
@@ -4510,10 +4509,10 @@
       <c r="B3" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="D3" s="71" t="n">
+      <c r="D3" s="70" t="n">
         <v>780</v>
       </c>
       <c r="E3" s="3"/>
@@ -4522,22 +4521,22 @@
       <c r="B4" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="71" t="n">
+      <c r="D4" s="70" t="n">
         <v>780</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C5" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="D5" s="71" t="n">
+      <c r="D5" s="70" t="n">
         <v>720</v>
       </c>
       <c r="E5" s="3"/>
@@ -4546,22 +4545,22 @@
       <c r="B6" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="D6" s="71" t="n">
+      <c r="D6" s="70" t="n">
         <v>700</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="C7" s="64" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="71" t="n">
+      <c r="D7" s="70" t="n">
         <v>700</v>
       </c>
       <c r="E7" s="3"/>
@@ -4570,10 +4569,10 @@
       <c r="B8" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="D8" s="71" t="n">
+      <c r="D8" s="70" t="n">
         <v>380</v>
       </c>
       <c r="E8" s="3"/>
@@ -4582,10 +4581,10 @@
       <c r="B9" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="D9" s="71" t="n">
+      <c r="D9" s="70" t="n">
         <v>380</v>
       </c>
       <c r="E9" s="3"/>
@@ -4594,10 +4593,10 @@
       <c r="B10" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="D10" s="71" t="n">
+      <c r="D10" s="70" t="n">
         <v>300</v>
       </c>
       <c r="E10" s="3"/>
@@ -4606,10 +4605,10 @@
       <c r="B11" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="D11" s="71" t="n">
+      <c r="D11" s="70" t="n">
         <v>390</v>
       </c>
       <c r="E11" s="3"/>
@@ -4618,10 +4617,10 @@
       <c r="B12" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="D12" s="71" t="n">
+      <c r="D12" s="70" t="n">
         <v>390</v>
       </c>
       <c r="E12" s="3"/>
@@ -4630,17 +4629,17 @@
       <c r="B13" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="63" t="s">
         <v>393</v>
       </c>
-      <c r="D13" s="71" t="n">
+      <c r="D13" s="70" t="n">
         <v>110</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="73.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4648,75 +4647,75 @@
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="72" t="s">
-        <v>498</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
+      <c r="B16" s="71" t="s">
+        <v>499</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="73" t="s">
-        <v>499</v>
-      </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
+      <c r="B17" s="72" t="s">
+        <v>500</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
     </row>
     <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="74" t="s">
-        <v>500</v>
-      </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
+      <c r="B18" s="73" t="s">
+        <v>501</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="72" t="s">
-        <v>502</v>
-      </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
+      <c r="B20" s="71" t="s">
+        <v>503</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="74" t="s">
-        <v>503</v>
-      </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
+      <c r="B21" s="73" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="72" t="s">
-        <v>505</v>
-      </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
+      <c r="B23" s="71" t="s">
+        <v>506</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="3"/>
@@ -4731,108 +4730,108 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="75" t="s">
-        <v>506</v>
-      </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
+      <c r="B26" s="74" t="s">
+        <v>507</v>
+      </c>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="68" t="s">
-        <v>507</v>
-      </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
+      <c r="B27" s="67" t="s">
+        <v>508</v>
+      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="76" t="s">
-        <v>508</v>
-      </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
+      <c r="B28" s="75" t="s">
+        <v>509</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="68" t="s">
-        <v>509</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
+      <c r="B29" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="72" t="s">
-        <v>510</v>
-      </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
+      <c r="B30" s="71" t="s">
+        <v>511</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="73" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
+      <c r="B31" s="72" t="s">
+        <v>512</v>
+      </c>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="74" t="s">
-        <v>512</v>
-      </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
+      <c r="B32" s="73" t="s">
+        <v>513</v>
+      </c>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="68" t="s">
-        <v>514</v>
-      </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
+      <c r="B34" s="67" t="s">
+        <v>515</v>
+      </c>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="72" t="s">
-        <v>515</v>
-      </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
+      <c r="B35" s="71" t="s">
+        <v>516</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="73" t="s">
-        <v>516</v>
-      </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
+      <c r="B36" s="72" t="s">
+        <v>517</v>
+      </c>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="68" t="s">
-        <v>517</v>
-      </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
+      <c r="B37" s="67" t="s">
+        <v>518</v>
+      </c>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="72" t="s">
-        <v>518</v>
-      </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
+      <c r="B38" s="71" t="s">
+        <v>519</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="3"/>
@@ -4847,116 +4846,116 @@
       <c r="E40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="74" t="s">
-        <v>506</v>
-      </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
+      <c r="B41" s="73" t="s">
+        <v>507</v>
+      </c>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="72" t="s">
-        <v>520</v>
-      </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
+      <c r="B43" s="71" t="s">
+        <v>521</v>
+      </c>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="73" t="s">
-        <v>521</v>
-      </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
+      <c r="B44" s="72" t="s">
+        <v>522</v>
+      </c>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="73" t="s">
-        <v>522</v>
-      </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
+      <c r="B45" s="72" t="s">
+        <v>523</v>
+      </c>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="74" t="s">
-        <v>523</v>
-      </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
+      <c r="B46" s="73" t="s">
+        <v>524</v>
+      </c>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="72" t="s">
-        <v>525</v>
-      </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
+      <c r="B48" s="71" t="s">
+        <v>526</v>
+      </c>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="74" t="s">
-        <v>526</v>
-      </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
+      <c r="B49" s="73" t="s">
+        <v>527</v>
+      </c>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="72" t="s">
-        <v>528</v>
-      </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
+      <c r="B51" s="71" t="s">
+        <v>529</v>
+      </c>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="74" t="s">
-        <v>529</v>
-      </c>
-      <c r="C52" s="74"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
+      <c r="B52" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="72" t="s">
-        <v>531</v>
-      </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
+      <c r="B54" s="71" t="s">
+        <v>532</v>
+      </c>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="3"/>
@@ -5029,10 +5028,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="N276:N281 B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
@@ -5053,7 +5052,7 @@
         <v>375</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>373</v>
@@ -5067,7 +5066,7 @@
         <v>376</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>377</v>
@@ -5081,7 +5080,7 @@
         <v>378</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>373</v>
@@ -5095,7 +5094,7 @@
         <v>379</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>380</v>
@@ -5109,7 +5108,7 @@
         <v>381</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>373</v>
@@ -5123,7 +5122,7 @@
         <v>382</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>53</v>
@@ -5137,7 +5136,7 @@
         <v>383</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>380</v>
@@ -5151,7 +5150,7 @@
         <v>384</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>385</v>
@@ -5165,7 +5164,7 @@
         <v>386</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>387</v>
@@ -5179,7 +5178,7 @@
         <v>388</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>389</v>
@@ -5193,7 +5192,7 @@
         <v>390</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>53</v>
@@ -5207,7 +5206,7 @@
         <v>391</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>385</v>
@@ -5221,7 +5220,7 @@
         <v>392</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>393</v>
@@ -5235,7 +5234,7 @@
         <v>395</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>53</v>
@@ -5249,7 +5248,7 @@
         <v>396</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>377</v>
@@ -5296,10 +5295,10 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N276:N281 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="42.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.22"/>
@@ -5310,7 +5309,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="67" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -5318,138 +5317,138 @@
       <c r="F1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="68" t="s">
-        <v>548</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="B2" s="67" t="s">
+        <v>549</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="72" t="s">
-        <v>549</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="71" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="75" t="s">
-        <v>550</v>
-      </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="B4" s="74" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="68" t="s">
-        <v>551</v>
-      </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="67" t="s">
+        <v>552</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="72" t="s">
-        <v>552</v>
-      </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="71" t="s">
+        <v>553</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="77" t="s">
-        <v>553</v>
+      <c r="B7" s="76" t="s">
+        <v>554</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="78" t="s">
-        <v>555</v>
-      </c>
-      <c r="F7" s="78"/>
+      <c r="E7" s="77" t="s">
+        <v>556</v>
+      </c>
+      <c r="F7" s="77"/>
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="68" t="s">
-        <v>556</v>
-      </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="67" t="s">
+        <v>557</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="72" t="s">
-        <v>557</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="71" t="s">
+        <v>558</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
     </row>
     <row r="10" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="79" t="n">
+      <c r="D10" s="78" t="n">
         <v>1600</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="72" t="s">
-        <v>559</v>
-      </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="71" t="s">
+        <v>560</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
     </row>
     <row r="12" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="74" t="s">
-        <v>560</v>
-      </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
+      <c r="B12" s="73" t="s">
+        <v>561</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="72" t="s">
-        <v>562</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+      <c r="B13" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="68" t="s">
-        <v>563</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="B14" s="67" t="s">
+        <v>564</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="72" t="s">
-        <v>564</v>
-      </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
+      <c r="B15" s="71" t="s">
+        <v>565</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
     </row>
     <row r="16" customFormat="false" ht="409" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="3"/>
@@ -5467,7 +5466,7 @@
     </row>
     <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -5475,17 +5474,17 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="72" t="s">
-        <v>566</v>
-      </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
+      <c r="B19" s="71" t="s">
+        <v>567</v>
+      </c>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -5493,17 +5492,17 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="72" t="s">
-        <v>568</v>
-      </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
+      <c r="B21" s="71" t="s">
+        <v>569</v>
+      </c>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -5511,17 +5510,17 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="72" t="s">
-        <v>570</v>
-      </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
+      <c r="B23" s="71" t="s">
+        <v>571</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -5529,17 +5528,17 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="80" t="s">
-        <v>572</v>
-      </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
+      <c r="B25" s="79" t="s">
+        <v>573</v>
+      </c>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -5547,17 +5546,17 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="72" t="s">
-        <v>574</v>
-      </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
+      <c r="B27" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
     </row>
     <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -5565,13 +5564,13 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="72" t="s">
-        <v>576</v>
-      </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
+      <c r="B29" s="71" t="s">
+        <v>577</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
     </row>
     <row r="30" customFormat="false" ht="409" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="3"/>
@@ -5588,22 +5587,22 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="81" t="s">
-        <v>577</v>
-      </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
+      <c r="B32" s="80" t="s">
+        <v>578</v>
+      </c>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
     </row>
     <row r="33" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="81" t="s">
-        <v>578</v>
-      </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
+      <c r="B33" s="80" t="s">
+        <v>579</v>
+      </c>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -5657,11 +5656,11 @@
   </sheetPr>
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K49" activeCellId="0" sqref="K49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K49" activeCellId="1" sqref="N276:N281 K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
@@ -7747,10 +7746,10 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="1" sqref="N276:N281 G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
@@ -8213,13 +8212,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R265"/>
+  <dimension ref="A1:R281"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A138" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C154" activeCellId="0" sqref="C154"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N276" activeCellId="0" sqref="N276:N281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="67.12"/>
@@ -16404,6 +16403,561 @@
       <c r="P265" s="36" t="str">
         <f aca="false">CONCATENATE(A265,B265,C265,D265,E265,F265,G265,H265,I265,J265,K265,L265,M265,N265,O265)</f>
         <v>&lt;div id="popup_129" aria-hidden="true" class="popup"&gt;&lt;div class="popup__wrapper"&gt;&lt;div class="popup__content"&gt;&lt;button data-close type="button" class="popup__close"&gt;&lt;span&gt;×&lt;/span&gt;&lt;/button&gt;&lt;div class="popup__product product-popup"&gt;&lt;div class="product-popup__contant"&gt;&lt;div class="product-popup__info"&gt;&lt;h5 class="product-popup__label"&gt;Berry whiskey&lt;/h5&gt;&lt;div class="product-popup__description"&gt;віскі, лимонний фреш, гранатовий сироп&lt;/div&gt;&lt;div class="product-popup__weigth"&gt;100 мл&lt;/div&gt;&lt;/div&gt;&lt;div class="product-popup__price"&gt;170 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="product-popup__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/popup/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/popup/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A269" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B269" s="18" t="n">
+        <v>333</v>
+      </c>
+      <c r="C269" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D269" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E269" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G269" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H269" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I269" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J269" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K269" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L269" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="N269" s="0" t="str">
+        <f aca="false">CONCATENATE(A269,B269,C269,D269,E269,F269,G269,H269,I269,J269,K269,L269,M269)</f>
+        <v>&lt;a href="#" data-popup="#popup_333" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Фруті де маре&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;220 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A270" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B270" s="18" t="n">
+        <v>334</v>
+      </c>
+      <c r="C270" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D270" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E270" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G270" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H270" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="I270" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J270" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K270" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L270" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="N270" s="0" t="str">
+        <f aca="false">CONCATENATE(A270,B270,C270,D270,E270,F270,G270,H270,I270,J270,K270,L270,M270)</f>
+        <v>&lt;a href="#" data-popup="#popup_334" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Фунгі поло&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;150 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A271" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B271" s="18" t="n">
+        <v>335</v>
+      </c>
+      <c r="C271" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D271" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G271" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H271" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I271" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J271" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K271" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L271" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="N271" s="0" t="str">
+        <f aca="false">CONCATENATE(A271,B271,C271,D271,E271,F271,G271,H271,I271,J271,K271,L271,M271)</f>
+        <v>&lt;a href="#" data-popup="#popup_335" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Паста з креветками (на томатній основі)&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;220 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A272" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B272" s="18" t="n">
+        <v>336</v>
+      </c>
+      <c r="C272" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D272" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E272" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F272" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G272" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H272" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="I272" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J272" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K272" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L272" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="N272" s="0" t="str">
+        <f aca="false">CONCATENATE(A272,B272,C272,D272,E272,F272,G272,H272,I272,J272,K272,L272,M272)</f>
+        <v>&lt;a href="#" data-popup="#popup_336" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Карбонара&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;165 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A273" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B273" s="18" t="n">
+        <v>337</v>
+      </c>
+      <c r="C273" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D273" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E273" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F273" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G273" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H273" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="I273" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J273" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L273" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="N273" s="0" t="str">
+        <f aca="false">CONCATENATE(A273,B273,C273,D273,E273,F273,G273,H273,I273,J273,K273,L273,M273)</f>
+        <v>&lt;a href="#" data-popup="#popup_337" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Кривава Мері&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;140 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A274" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B274" s="18" t="n">
+        <v>338</v>
+      </c>
+      <c r="C274" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D274" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E274" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F274" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G274" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H274" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="I274" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J274" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K274" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L274" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="N274" s="0" t="str">
+        <f aca="false">CONCATENATE(A274,B274,C274,D274,E274,F274,G274,H274,I274,J274,K274,L274,M274)</f>
+        <v>&lt;a href="#" data-popup="#popup_338" class="category-menu__item item-category-menu"&gt;&lt;div class="item-category-menu__content"&gt;&lt;div class="item-category-menu__info"&gt;&lt;h5 class="item-category-menu__label"&gt;Грибна лазанья&lt;/h5&gt;&lt;div class="item-category-menu__description"&gt;&lt;/div&gt;&lt;div class="item-category-menu__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__price"&gt;165 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="item-category-menu__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/a&gt; </v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A275" s="18"/>
+      <c r="B275" s="18"/>
+      <c r="C275" s="19"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="20"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="19"/>
+      <c r="H275" s="7"/>
+      <c r="I275" s="19"/>
+      <c r="J275" s="34"/>
+      <c r="K275" s="19"/>
+      <c r="L275" s="34"/>
+      <c r="M275" s="19"/>
+    </row>
+    <row r="276" s="45" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A276" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B276" s="18" t="n">
+        <v>333</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D276" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E276" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F276" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G276" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H276" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I276" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J276" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="L276" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="N276" s="28" t="str">
+        <f aca="false">CONCATENATE(A276,B276,C276,D276,E276,F276,G276,H276,I276,J276,K276,L276,M276)</f>
+        <v>&lt;div id="popup_333" aria-hidden="true" class="popup"&gt;&lt;div class="popup__wrapper"&gt;&lt;div class="popup__content"&gt;&lt;button data-close type="button" class="popup__close"&gt;&lt;span&gt;×&lt;/span&gt;&lt;/button&gt;&lt;div class="popup__product product-popup"&gt;&lt;div class="product-popup__contant"&gt;&lt;div class="product-popup__info"&gt;&lt;h5 class="product-popup__label"&gt;Фруті де маре&lt;/h5&gt;&lt;div class="product-popup__description"&gt;&lt;/div&gt;&lt;div class="product-popup__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="product-popup__price"&gt;220 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="product-popup__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/popup/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/popup/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="277" s="45" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A277" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B277" s="18" t="n">
+        <v>334</v>
+      </c>
+      <c r="C277" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D277" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E277" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F277" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G277" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H277" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="I277" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J277" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K277" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="L277" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="N277" s="28" t="str">
+        <f aca="false">CONCATENATE(A277,B277,C277,D277,E277,F277,G277,H277,I277,J277,K277,L277,M277)</f>
+        <v>&lt;div id="popup_334" aria-hidden="true" class="popup"&gt;&lt;div class="popup__wrapper"&gt;&lt;div class="popup__content"&gt;&lt;button data-close type="button" class="popup__close"&gt;&lt;span&gt;×&lt;/span&gt;&lt;/button&gt;&lt;div class="popup__product product-popup"&gt;&lt;div class="product-popup__contant"&gt;&lt;div class="product-popup__info"&gt;&lt;h5 class="product-popup__label"&gt;Фунгі поло&lt;/h5&gt;&lt;div class="product-popup__description"&gt;&lt;/div&gt;&lt;div class="product-popup__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="product-popup__price"&gt;150 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="product-popup__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/popup/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/popup/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="278" s="45" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A278" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B278" s="18" t="n">
+        <v>335</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D278" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F278" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G278" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H278" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I278" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J278" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K278" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="L278" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="N278" s="28" t="str">
+        <f aca="false">CONCATENATE(A278,B278,C278,D278,E278,F278,G278,H278,I278,J278,K278,L278,M278)</f>
+        <v>&lt;div id="popup_335" aria-hidden="true" class="popup"&gt;&lt;div class="popup__wrapper"&gt;&lt;div class="popup__content"&gt;&lt;button data-close type="button" class="popup__close"&gt;&lt;span&gt;×&lt;/span&gt;&lt;/button&gt;&lt;div class="popup__product product-popup"&gt;&lt;div class="product-popup__contant"&gt;&lt;div class="product-popup__info"&gt;&lt;h5 class="product-popup__label"&gt;Паста з креветками (на томатній основі)&lt;/h5&gt;&lt;div class="product-popup__description"&gt;&lt;/div&gt;&lt;div class="product-popup__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="product-popup__price"&gt;220 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="product-popup__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/popup/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/popup/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="279" s="45" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A279" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B279" s="18" t="n">
+        <v>336</v>
+      </c>
+      <c r="C279" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D279" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E279" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F279" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G279" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H279" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="I279" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J279" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K279" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="L279" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="N279" s="28" t="str">
+        <f aca="false">CONCATENATE(A279,B279,C279,D279,E279,F279,G279,H279,I279,J279,K279,L279,M279)</f>
+        <v>&lt;div id="popup_336" aria-hidden="true" class="popup"&gt;&lt;div class="popup__wrapper"&gt;&lt;div class="popup__content"&gt;&lt;button data-close type="button" class="popup__close"&gt;&lt;span&gt;×&lt;/span&gt;&lt;/button&gt;&lt;div class="popup__product product-popup"&gt;&lt;div class="product-popup__contant"&gt;&lt;div class="product-popup__info"&gt;&lt;h5 class="product-popup__label"&gt;Карбонара&lt;/h5&gt;&lt;div class="product-popup__description"&gt;&lt;/div&gt;&lt;div class="product-popup__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="product-popup__price"&gt;165 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="product-popup__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/popup/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/popup/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="280" s="45" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A280" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B280" s="18" t="n">
+        <v>337</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D280" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E280" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F280" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G280" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H280" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="I280" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J280" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K280" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="L280" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="N280" s="28" t="str">
+        <f aca="false">CONCATENATE(A280,B280,C280,D280,E280,F280,G280,H280,I280,J280,K280,L280,M280)</f>
+        <v>&lt;div id="popup_337" aria-hidden="true" class="popup"&gt;&lt;div class="popup__wrapper"&gt;&lt;div class="popup__content"&gt;&lt;button data-close type="button" class="popup__close"&gt;&lt;span&gt;×&lt;/span&gt;&lt;/button&gt;&lt;div class="popup__product product-popup"&gt;&lt;div class="product-popup__contant"&gt;&lt;div class="product-popup__info"&gt;&lt;h5 class="product-popup__label"&gt;Кривава Мері&lt;/h5&gt;&lt;div class="product-popup__description"&gt;&lt;/div&gt;&lt;div class="product-popup__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="product-popup__price"&gt;140 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="product-popup__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/popup/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/popup/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="281" s="45" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A281" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B281" s="18" t="n">
+        <v>338</v>
+      </c>
+      <c r="C281" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D281" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E281" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F281" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G281" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H281" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="I281" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J281" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K281" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="L281" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="N281" s="28" t="str">
+        <f aca="false">CONCATENATE(A281,B281,C281,D281,E281,F281,G281,H281,I281,J281,K281,L281,M281)</f>
+        <v>&lt;div id="popup_338" aria-hidden="true" class="popup"&gt;&lt;div class="popup__wrapper"&gt;&lt;div class="popup__content"&gt;&lt;button data-close type="button" class="popup__close"&gt;&lt;span&gt;×&lt;/span&gt;&lt;/button&gt;&lt;div class="popup__product product-popup"&gt;&lt;div class="product-popup__contant"&gt;&lt;div class="product-popup__info"&gt;&lt;h5 class="product-popup__label"&gt;Грибна лазанья&lt;/h5&gt;&lt;div class="product-popup__description"&gt;&lt;/div&gt;&lt;div class="product-popup__weigth"&gt;Вага 200 г&lt;/div&gt;&lt;/div&gt;&lt;div class="product-popup__price"&gt;165 грн.&lt;/div&gt;&lt;/div&gt;&lt;div class="product-popup__image-ibg"&gt;&lt;picture&gt;&lt;source srcset="img/menu-page/popup/01.webp" type="image/webp"&gt;&lt;img src="img/menu-page/popup/01.jpg" alt="image product"&gt;&lt;/picture&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -16429,10 +16983,10 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+      <selection pane="topLeft" activeCell="F34" activeCellId="1" sqref="N276:N281 F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.89"/>
@@ -16534,37 +17088,37 @@
     </row>
     <row r="8" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="53"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B9" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="B9" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
+      <c r="B10" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
@@ -16705,17 +17259,17 @@
     </row>
     <row r="20" customFormat="false" ht="38.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57" t="s">
+      <c r="E20" s="55"/>
+      <c r="F20" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="G20" s="57"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16723,10 +17277,10 @@
         <v>246</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="E21" s="58"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
@@ -16736,10 +17290,10 @@
         <v>247</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="E22" s="58"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
@@ -16749,10 +17303,10 @@
         <v>248</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="58"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="52" t="s">
         <v>198</v>
       </c>
@@ -16764,10 +17318,10 @@
         <v>250</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="E24" s="58"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="52" t="s">
         <v>230</v>
       </c>
@@ -16779,10 +17333,10 @@
         <v>251</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="58"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="52" t="s">
         <v>230</v>
       </c>
@@ -16794,10 +17348,10 @@
         <v>252</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="58"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="52" t="s">
         <v>230</v>
       </c>
@@ -16809,10 +17363,10 @@
         <v>253</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="E27" s="58"/>
+      <c r="E27" s="57"/>
       <c r="F27" s="52" t="s">
         <v>230</v>
       </c>
@@ -16821,7 +17375,7 @@
     </row>
     <row r="28" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -16835,10 +17389,10 @@
         <v>254</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="E29" s="59"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="52" t="s">
         <v>256</v>
       </c>
@@ -16850,10 +17404,10 @@
         <v>257</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="E30" s="59"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="52" t="s">
         <v>258</v>
       </c>
@@ -16865,10 +17419,10 @@
         <v>259</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="59"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="52" t="s">
         <v>260</v>
       </c>
@@ -16877,13 +17431,13 @@
     </row>
     <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="E32" s="59"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="52" t="s">
         <v>226</v>
       </c>
@@ -16892,7 +17446,7 @@
     </row>
     <row r="33" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -17192,10 +17746,10 @@
   <dimension ref="B1:G35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="N276:N281 D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="53.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.88"/>
@@ -17207,7 +17761,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="186.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -17233,7 +17787,7 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
@@ -17245,7 +17799,7 @@
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="3"/>
@@ -17349,7 +17903,7 @@
     </row>
     <row r="13" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -17359,7 +17913,7 @@
     </row>
     <row r="14" customFormat="false" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -17441,7 +17995,7 @@
     </row>
     <row r="21" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -17451,18 +18005,18 @@
     </row>
     <row r="22" customFormat="false" ht="396.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="60" t="s">
-        <v>432</v>
-      </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61" t="s">
+      <c r="E22" s="59" t="s">
         <v>433</v>
+      </c>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17471,7 +18025,7 @@
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="3"/>
@@ -17495,21 +18049,21 @@
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="E26" s="62"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="61" t="s">
+        <v>437</v>
+      </c>
+      <c r="E26" s="61"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
@@ -17531,7 +18085,7 @@
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="3"/>
@@ -17555,7 +18109,7 @@
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="3"/>
@@ -17567,7 +18121,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="3"/>
@@ -17697,10 +18251,10 @@
   <dimension ref="B1:E43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+      <selection pane="topLeft" activeCell="E41" activeCellId="1" sqref="N276:N281 E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.89"/>
@@ -17710,7 +18264,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
@@ -17721,7 +18275,7 @@
         <v>326</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -17733,7 +18287,7 @@
         <v>327</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E3" s="52" t="s">
@@ -17742,10 +18296,10 @@
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E4" s="52" t="s">
@@ -17757,7 +18311,7 @@
         <v>329</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E5" s="52" t="s">
@@ -17769,7 +18323,7 @@
         <v>330</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E6" s="52" t="s">
@@ -17781,7 +18335,7 @@
         <v>331</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E7" s="52" t="s">
@@ -17793,7 +18347,7 @@
         <v>332</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E8" s="52" t="s">
@@ -17805,7 +18359,7 @@
         <v>333</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E9" s="52" t="s">
@@ -17817,11 +18371,11 @@
         <v>334</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17829,7 +18383,7 @@
         <v>336</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -17838,7 +18392,7 @@
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="1"/>
@@ -17849,11 +18403,11 @@
         <v>305</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17861,11 +18415,11 @@
         <v>307</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17873,7 +18427,7 @@
         <v>309</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E15" s="52" t="s">
@@ -17885,7 +18439,7 @@
         <v>310</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -17897,7 +18451,7 @@
         <v>311</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E17" s="52" t="s">
@@ -17909,16 +18463,16 @@
         <v>312</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="1"/>
@@ -17929,11 +18483,11 @@
         <v>337</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="63" t="s">
         <v>338</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17941,11 +18495,11 @@
         <v>340</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="63" t="s">
         <v>338</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17953,23 +18507,23 @@
         <v>342</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="63" t="s">
         <v>338</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="63" t="s">
         <v>338</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17977,11 +18531,11 @@
         <v>345</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="63" t="s">
         <v>338</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17989,11 +18543,11 @@
         <v>347</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="63" t="s">
         <v>338</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18001,11 +18555,11 @@
         <v>349</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="63" t="s">
         <v>338</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18013,11 +18567,11 @@
         <v>350</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="63" t="s">
         <v>338</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18025,7 +18579,7 @@
         <v>352</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="63" t="s">
         <v>338</v>
       </c>
       <c r="E28" s="52" t="s">
@@ -18037,7 +18591,7 @@
         <v>354</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="63" t="s">
         <v>338</v>
       </c>
       <c r="E29" s="52" t="s">
@@ -18049,16 +18603,16 @@
         <v>355</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="63" t="s">
         <v>393</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="1"/>
@@ -18069,16 +18623,16 @@
         <v>356</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="62" t="s">
         <v>150</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="1"/>
@@ -18088,10 +18642,10 @@
       <c r="B34" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="D34" s="63"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="52" t="s">
         <v>359</v>
       </c>
@@ -18100,10 +18654,10 @@
       <c r="B35" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D35" s="53"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="52" t="s">
         <v>228</v>
       </c>
@@ -18112,10 +18666,10 @@
       <c r="B36" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="D36" s="63"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="52" t="s">
         <v>363</v>
       </c>
@@ -18124,10 +18678,10 @@
       <c r="B37" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D37" s="53"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="52" t="s">
         <v>176</v>
       </c>
@@ -18136,10 +18690,10 @@
       <c r="B38" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D38" s="53"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="52" t="s">
         <v>157</v>
       </c>
@@ -18148,10 +18702,10 @@
       <c r="B39" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="62"/>
       <c r="E39" s="52" t="s">
         <v>368</v>
       </c>
@@ -18160,10 +18714,10 @@
       <c r="B40" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D40" s="53"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="52" t="s">
         <v>194</v>
       </c>
@@ -18172,10 +18726,10 @@
       <c r="B41" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D41" s="53"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="52" t="s">
         <v>371</v>
       </c>
@@ -18255,10 +18809,10 @@
   <dimension ref="B1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="N276:N281 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="67.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.88"/>
@@ -18268,7 +18822,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -18282,233 +18836,233 @@
         <v>373</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="65" t="s">
-        <v>457</v>
+      <c r="B3" s="64" t="s">
+        <v>458</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="65" t="s">
+        <v>459</v>
+      </c>
+      <c r="C4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="61" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="65" t="s">
-        <v>459</v>
+      <c r="B5" s="64" t="s">
+        <v>460</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="66" t="s">
-        <v>460</v>
-      </c>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="65" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="66" t="s">
-        <v>461</v>
-      </c>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="65" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="61" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="C8" s="67" t="s">
+      <c r="B8" s="65" t="s">
+        <v>463</v>
+      </c>
+      <c r="C8" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="D8" s="62" t="s">
-        <v>437</v>
+      <c r="D8" s="61" t="s">
+        <v>438</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="66" t="s">
-        <v>463</v>
-      </c>
-      <c r="C9" s="67" t="s">
+      <c r="B9" s="65" t="s">
+        <v>464</v>
+      </c>
+      <c r="C9" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="61" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="66" t="s">
-        <v>464</v>
-      </c>
-      <c r="C10" s="67" t="s">
+      <c r="B10" s="65" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="61" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="66" t="s">
-        <v>465</v>
-      </c>
-      <c r="C11" s="67" t="s">
+      <c r="B11" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="C11" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="62" t="s">
-        <v>437</v>
+      <c r="D11" s="61" t="s">
+        <v>438</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="66" t="s">
-        <v>466</v>
-      </c>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="65" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="D12" s="62" t="s">
-        <v>435</v>
+      <c r="D12" s="61" t="s">
+        <v>436</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="66" t="s">
-        <v>467</v>
-      </c>
-      <c r="C13" s="67" t="s">
+      <c r="B13" s="65" t="s">
+        <v>468</v>
+      </c>
+      <c r="C13" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="61" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="66" t="s">
-        <v>468</v>
-      </c>
-      <c r="C14" s="67" t="s">
+      <c r="B14" s="65" t="s">
+        <v>469</v>
+      </c>
+      <c r="C14" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="61" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="66" t="s">
-        <v>469</v>
-      </c>
-      <c r="C15" s="67" t="s">
+      <c r="B15" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="61" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="66" t="s">
-        <v>470</v>
-      </c>
-      <c r="C16" s="67" t="s">
+      <c r="B16" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="C16" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="61" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="66" t="s">
-        <v>471</v>
-      </c>
-      <c r="C17" s="67" t="s">
+      <c r="B17" s="65" t="s">
+        <v>472</v>
+      </c>
+      <c r="C17" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="61" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="66" t="s">
-        <v>472</v>
-      </c>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="65" t="s">
+        <v>473</v>
+      </c>
+      <c r="C18" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="61" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="66" t="s">
-        <v>473</v>
-      </c>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="C19" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="61" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="66" t="s">
-        <v>474</v>
-      </c>
-      <c r="C20" s="67" t="s">
+      <c r="B20" s="65" t="s">
+        <v>475</v>
+      </c>
+      <c r="C20" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="61" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="66" t="s">
-        <v>475</v>
-      </c>
-      <c r="C21" s="67" t="s">
+      <c r="B21" s="65" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="61" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="65" t="s">
-        <v>476</v>
+      <c r="B22" s="64" t="s">
+        <v>477</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -18549,10 +19103,10 @@
   <dimension ref="B1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N276:N281 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="58.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8"/>
@@ -18562,7 +19116,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -18572,41 +19126,41 @@
       <c r="B2" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="69" t="s">
-        <v>478</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="68" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="68" t="s">
-        <v>426</v>
+      <c r="D3" s="67" t="s">
+        <v>427</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="69" t="s">
-        <v>479</v>
-      </c>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="68" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="70" t="s">
-        <v>480</v>
+      <c r="B5" s="69" t="s">
+        <v>481</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -18624,11 +19178,11 @@
       <c r="B7" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="68" t="s">
-        <v>434</v>
+      <c r="D7" s="67" t="s">
+        <v>435</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -18636,11 +19190,11 @@
       <c r="B8" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="68" t="s">
-        <v>434</v>
+      <c r="D8" s="67" t="s">
+        <v>435</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -18648,10 +19202,10 @@
       <c r="B9" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="67" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="3"/>
@@ -18660,17 +19214,17 @@
       <c r="B10" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="68" t="s">
-        <v>434</v>
+      <c r="D10" s="67" t="s">
+        <v>435</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -18678,10 +19232,10 @@
     </row>
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="C12" s="64" t="s">
         <v>483</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>484</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>26</v>
@@ -18690,9 +19244,9 @@
     </row>
     <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C13" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="C13" s="63" t="s">
         <v>373</v>
       </c>
       <c r="D13" s="52" t="s">
@@ -18702,10 +19256,10 @@
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="C14" s="64" t="s">
         <v>486</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>487</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>35</v>
@@ -18714,10 +19268,10 @@
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C15" s="63" t="s">
         <v>487</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>486</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>35</v>
@@ -18726,10 +19280,10 @@
     </row>
     <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>486</v>
+        <v>489</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>487</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>35</v>
@@ -18738,10 +19292,10 @@
     </row>
     <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>486</v>
+        <v>490</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>487</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>35</v>
@@ -18750,10 +19304,10 @@
     </row>
     <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>486</v>
+        <v>491</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>487</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>35</v>
@@ -18762,10 +19316,10 @@
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>486</v>
+        <v>492</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>487</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>35</v>
@@ -18774,10 +19328,10 @@
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>486</v>
+        <v>493</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>487</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>35</v>
@@ -18786,10 +19340,10 @@
     </row>
     <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>486</v>
+        <v>494</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>487</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>35</v>
@@ -18798,10 +19352,10 @@
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>486</v>
+        <v>495</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>487</v>
       </c>
       <c r="D22" s="52" t="s">
         <v>35</v>
